--- a/resultats.xlsx
+++ b/resultats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ensit\projects\project graph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aziz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EEC622-62A5-4ECB-ACFB-D720006748EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DFDA93-36D8-4CA1-9871-852AA57A2AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Graphe</t>
   </si>
@@ -536,8 +536,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -607,6 +609,432 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22638060600123275"/>
+          <c:y val="2.6735469665778487E-4"/>
+          <c:w val="0.75066449508741417"/>
+          <c:h val="0.80609573786341704"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resultats!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>resultats!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>graphe1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>graphe2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>graphe3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>graphe4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>graphe5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>resultats!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.3999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8999999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9999999999999997E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BEE-42A2-9C4D-C6233A71D359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>resultats!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>resultats!$A$2:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bellman-Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Dijkstra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>graphe1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>graphe2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>graphe3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>graphe4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>graphe5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>resultats!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BEE-42A2-9C4D-C6233A71D359}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:shape val="box"/>
+        <c:axId val="190558976"/>
+        <c:axId val="190689664"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="190558976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190689664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190689664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="190558976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>159328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155359</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Graphique 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -650,7 +1078,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -702,7 +1130,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -906,11 +1334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
@@ -930,8 +1358,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -945,9 +1373,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -959,7 +1385,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -973,9 +1399,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -987,7 +1411,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -1001,9 +1425,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1015,7 +1437,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
@@ -1029,9 +1451,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -1043,7 +1463,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -1057,9 +1477,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -1071,9 +1489,55 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A9">
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2 A4 A6 A8">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000001000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>resultats!C2:C11</xm:f>
+              <xm:sqref>Y3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{00000000-0003-0000-0000-000000000000}">
+          <x14:colorSeries theme="4" tint="-0.499984740745262"/>
+          <x14:colorNegative theme="5"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="4" tint="-0.499984740745262"/>
+          <x14:colorFirst theme="4" tint="0.39997558519241921"/>
+          <x14:colorLast theme="4" tint="0.39997558519241921"/>
+          <x14:colorHigh theme="4"/>
+          <x14:colorLow theme="4"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>resultats!J19</xm:f>
+              <xm:sqref>J21</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>